--- a/data/rating/commodity_rating_system.xlsx
+++ b/data/rating/commodity_rating_system.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C6112C-6AE9-44C8-8E37-B0CD13FC452E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -39,13 +40,13 @@
     <t>label</t>
   </si>
   <si>
-    <t>keys</t>
+    <t>key words</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,11 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -95,7 +92,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -372,16 +369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -389,43 +386,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
